--- a/outputs/BET/CATCH_DATA_TABLE_BET.xlsx
+++ b/outputs/BET/CATCH_DATA_TABLE_BET.xlsx
@@ -384,19 +384,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94803.0856180968</v>
+        <v>102266.376582949</v>
       </c>
       <c r="B2" t="n">
-        <v>75505.9336156659</v>
+        <v>82871.0355576873</v>
       </c>
       <c r="C2" t="n">
-        <v>19297.1520024309</v>
+        <v>19395.3410252622</v>
       </c>
       <c r="D2" t="n">
-        <v>20.4</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>87488</v>
+        <v>92687</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/BET/CATCH_DATA_TABLE_BET.xlsx
+++ b/outputs/BET/CATCH_DATA_TABLE_BET.xlsx
@@ -384,19 +384,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>102266.376582949</v>
+        <v>87040.4972047091</v>
       </c>
       <c r="B2" t="n">
-        <v>82871.0355576873</v>
+        <v>86886.3958674371</v>
       </c>
       <c r="C2" t="n">
-        <v>19395.3410252622</v>
+        <v>154.101337271975</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>0.18</v>
       </c>
       <c r="E2" t="n">
-        <v>92687</v>
+        <v>88555</v>
       </c>
     </row>
   </sheetData>
